--- a/3. PLANEACION GENERAL DEL CURSO  VIRTUAL 2024.xlsx
+++ b/3. PLANEACION GENERAL DEL CURSO  VIRTUAL 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaaguir\Documents\Desarrollo\Curso Procesos Ágiles de Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590F091F-D813-427F-8CC4-A77ED79F0541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DF5A51-4FB3-4899-87E6-BB75DBE03584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Universidad Autónoma de Manizales. UAMVirtual</t>
   </si>
@@ -347,25 +347,10 @@
     <t>Actividad extra entre los estudiantes con respecto a la realizacion del planning, dailys, review y retrospective con apoyo del tutor. Consignacion de la informacion en la herramienta Azure Devops.</t>
   </si>
   <si>
-    <t>Explicacion de los conceptos mediantes diapositivas. Video acerca de la configuracion y construccion de un esquema de integracion y entrega continua.</t>
-  </si>
-  <si>
-    <t>Explicacion tecnica y funcional del proyecto. Estructuracion y desarrollo de pruebas de integracion con herramienta Jmeter, Postman o equivalente.</t>
-  </si>
-  <si>
-    <t>Evaluacion de opcion multiple con respecto a los conceptos de integracion y entrega continua. Proyecto: Haciendo uso de la herramienta Azure Devops se construira un build y pipeline para la ejecución de pruebas de integracion, siguiendo los pasos de la integracion y entrega continua.</t>
-  </si>
-  <si>
     <t>En las horas de tutoria se hara revision del proyecto y retroalimentacion del mismo.</t>
   </si>
   <si>
     <t>Diapositivas en PowerPoint o equivalente. Revision de video y lectura de acuerdo a bibliografia del curso</t>
-  </si>
-  <si>
-    <t>Explicacion de los conceptos mediantes diapositivas. Video de beneficios de las metodologias agiles. Lectura de ejemplos de caso de uso de los roles y eventos del SCRUM.</t>
-  </si>
-  <si>
-    <t>Actividad de clase de conformacion de equipos, asignacion de roles entre los estudiantes. Explicacion y lectura del funcionamiento de Azure Devops. Diapositivas de explicacion de la creacion de una organizacion, epicas y estructura de las historias de usuario en vivo con la herramienta Azure Devops. Actividad evaluativa de opcion multiple en vivo acerca de los conceptos de las metodologias agiles</t>
   </si>
   <si>
     <t>Actividad interactiva entre los estudiantes sobre SCRUM. Lectura sobre Azure Devops. Uso de la herramienta Azure Devops o equivalente.</t>
@@ -384,6 +369,24 @@
   </si>
   <si>
     <t>Se hara uso de la plataforma Azure Devops para la realizacion del proyecto de integracion y entrega continua, ademas de SoapUI, Jmeter, Postman o su equivalente para la creación de las pruebas de integración</t>
+  </si>
+  <si>
+    <t>Diapositivas en PowerPoint o equivalente. Revision de video y lectura de acuerdo a bibliografia del curso.</t>
+  </si>
+  <si>
+    <t>Explicacion de los conceptos mediantes diapositivas. Video de beneficios de las metodologias agiles. Lectura de ejemplos de caso de uso de los roles y eventos del SCRUM. Indagacion abierta sobre: Kanban, Lean y XP</t>
+  </si>
+  <si>
+    <t>Actividad de clase de conformacion de equipos, asignacion de roles entre los estudiantes. Explicacion y lectura del funcionamiento de Azure Devops. Diapositivas de explicacion de la creacion de una organizacion, epicas y estructura de las historias de usuario en vivo con la herramienta Azure Devops.</t>
+  </si>
+  <si>
+    <t>Indagacion abierta: Caracteristicas de las plataformas de integracion y entrega continua (Jekins, Azure Devops, Github) Video acerca de la configuracion y construccion de un esquema de integracion y entrega continua.</t>
+  </si>
+  <si>
+    <t>Proyecto: Haciendo uso de la herramienta Azure Devops se construira un build y pipeline para la ejecución de pruebas automatizadas, siguiendo los pasos de la integracion y entrega continua.</t>
+  </si>
+  <si>
+    <t>Explicacion tecnica y funcional del proyecto. Estructuracion y desarrollo de pruebas de integracion con herramienta Jmeter, Postman o equivalente. Problematizacion de aplicación paso a paso de un caso de la integracion y entrega continua</t>
   </si>
 </sst>
 </file>
@@ -690,24 +693,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -751,6 +736,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1093,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1115,16 +1118,16 @@
     <row r="1" spans="1:27" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1146,16 +1149,16 @@
     <row r="2" spans="1:27" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1175,18 +1178,18 @@
       <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:27" ht="19.5">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1206,18 +1209,18 @@
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27" ht="19.5">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="44"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1237,18 +1240,18 @@
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27" ht="19.5">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="44"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1268,18 +1271,18 @@
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27" ht="19.5">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="44"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1299,18 +1302,18 @@
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27" ht="19.5">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="47"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1407,33 +1410,33 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" ht="87.75" customHeight="1">
-      <c r="A10" s="54">
+    <row r="10" spans="1:27" ht="137.25" customHeight="1">
+      <c r="A10" s="44">
         <v>1</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="54" t="s">
-        <v>51</v>
+      <c r="F10" s="44" t="s">
+        <v>55</v>
       </c>
-      <c r="G10" s="53">
-        <v>0</v>
+      <c r="G10" s="43">
+        <v>0.1</v>
       </c>
-      <c r="H10" s="54" t="s">
-        <v>50</v>
+      <c r="H10" s="44" t="s">
+        <v>54</v>
       </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54">
+      <c r="I10" s="44"/>
+      <c r="J10" s="44">
         <v>10</v>
       </c>
       <c r="K10" s="11"/>
@@ -1454,14 +1457,14 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
     </row>
-    <row r="11" spans="1:27" ht="187.5">
-      <c r="A11" s="49" t="s">
+    <row r="11" spans="1:27" ht="150">
+      <c r="A11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -1471,16 +1474,16 @@
         <v>33</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
-      <c r="G11" s="55">
-        <v>0.25</v>
+      <c r="G11" s="45">
+        <v>0</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49">
+      <c r="I11" s="39"/>
+      <c r="J11" s="39">
         <v>5</v>
       </c>
       <c r="K11" s="2"/>
@@ -1502,32 +1505,32 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="96.75" customHeight="1">
-      <c r="A12" s="58">
+      <c r="A12" s="48">
         <v>2</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="57">
-        <v>0.25</v>
+      <c r="G12" s="47">
+        <v>0.35</v>
       </c>
-      <c r="H12" s="58" t="s">
-        <v>54</v>
+      <c r="H12" s="48" t="s">
+        <v>49</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58">
+      <c r="I12" s="48"/>
+      <c r="J12" s="48">
         <v>10</v>
       </c>
       <c r="K12" s="2"/>
@@ -1549,18 +1552,18 @@
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="31.5" hidden="1" customHeight="1">
-      <c r="A13" s="48">
+      <c r="A13" s="38">
         <v>3</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
@@ -1580,13 +1583,13 @@
       <c r="AA13" s="11"/>
     </row>
     <row r="14" spans="1:27" ht="93.75">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -1598,14 +1601,14 @@
       <c r="F14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="45">
         <v>0</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49">
+      <c r="I14" s="39"/>
+      <c r="J14" s="39">
         <v>5</v>
       </c>
       <c r="K14" s="2"/>
@@ -1626,14 +1629,14 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" ht="91.5" customHeight="1">
-      <c r="A15" s="60">
+    <row r="15" spans="1:27" ht="122.25" customHeight="1">
+      <c r="A15" s="50">
         <v>4</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="40" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="24" t="s">
@@ -1643,16 +1646,16 @@
         <v>34</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
-      <c r="G15" s="59">
-        <v>0</v>
+      <c r="G15" s="49">
+        <v>0.1</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60">
+      <c r="I15" s="50"/>
+      <c r="J15" s="50">
         <v>10</v>
       </c>
       <c r="K15" s="2"/>
@@ -1673,14 +1676,14 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" ht="79.5" customHeight="1">
-      <c r="A16" s="48">
+    <row r="16" spans="1:27" ht="132.75" customHeight="1">
+      <c r="A16" s="38">
         <v>5</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="19" t="s">
@@ -1690,16 +1693,16 @@
         <v>35</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
-      <c r="G16" s="61">
-        <v>0</v>
+      <c r="G16" s="51">
+        <v>0.1</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48">
+      <c r="I16" s="38"/>
+      <c r="J16" s="38">
         <v>10</v>
       </c>
       <c r="K16" s="11"/>
@@ -1720,14 +1723,14 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
     </row>
-    <row r="17" spans="1:27" ht="131.25">
-      <c r="A17" s="49" t="s">
+    <row r="17" spans="1:27" ht="112.5">
+      <c r="A17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="39" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -1737,16 +1740,16 @@
         <v>35</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
-      <c r="G17" s="55">
-        <v>0.25</v>
+      <c r="G17" s="45">
+        <v>0.35</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49">
+      <c r="I17" s="39"/>
+      <c r="J17" s="39">
         <v>5</v>
       </c>
       <c r="K17" s="2"/>
@@ -1768,13 +1771,13 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="75">
-      <c r="A18" s="60">
+      <c r="A18" s="50">
         <v>6</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="41" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="24" t="s">
@@ -1784,16 +1787,16 @@
         <v>35</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
-      <c r="G18" s="59">
-        <v>0.25</v>
+      <c r="G18" s="49">
+        <v>0</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60">
+      <c r="I18" s="50"/>
+      <c r="J18" s="50">
         <v>10</v>
       </c>
       <c r="K18" s="2"/>
@@ -1945,7 +1948,7 @@
       <c r="F23" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="62">
+      <c r="G23" s="52">
         <v>1</v>
       </c>
       <c r="H23" s="2"/>
